--- a/abgabeOrdner/output/final/Konsistenz_Report.xlsx
+++ b/abgabeOrdner/output/final/Konsistenz_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,2135 +468,1959 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202609</v>
+        <v>202703</v>
       </c>
       <c r="C2" t="n">
-        <v>35523000</v>
+        <v>4322996</v>
       </c>
       <c r="D2" t="n">
-        <v>35523000</v>
+        <v>4323000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202610</v>
+        <v>202704</v>
       </c>
       <c r="C3" t="n">
-        <v>30671783</v>
+        <v>5033000</v>
       </c>
       <c r="D3" t="n">
-        <v>30672000</v>
+        <v>5033000</v>
       </c>
       <c r="E3" t="n">
-        <v>-217</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202611</v>
+        <v>202706</v>
       </c>
       <c r="C4" t="n">
-        <v>32760974</v>
+        <v>5290009</v>
       </c>
       <c r="D4" t="n">
-        <v>32761000</v>
+        <v>5290000</v>
       </c>
       <c r="E4" t="n">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202612</v>
+        <v>202707</v>
       </c>
       <c r="C5" t="n">
-        <v>34324025</v>
+        <v>4913985</v>
       </c>
       <c r="D5" t="n">
-        <v>34324000</v>
+        <v>4914000</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202701</v>
+        <v>202708</v>
       </c>
       <c r="C6" t="n">
-        <v>35675066</v>
+        <v>3705992</v>
       </c>
       <c r="D6" t="n">
-        <v>35675000</v>
+        <v>3706000</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202702</v>
+        <v>202709</v>
       </c>
       <c r="C7" t="n">
-        <v>28139943</v>
+        <v>4795962</v>
       </c>
       <c r="D7" t="n">
-        <v>28140000</v>
+        <v>4796000</v>
       </c>
       <c r="E7" t="n">
-        <v>-57</v>
+        <v>-38</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202703</v>
+        <v>202710</v>
       </c>
       <c r="C8" t="n">
-        <v>40457059</v>
+        <v>7554015</v>
       </c>
       <c r="D8" t="n">
-        <v>40457000</v>
+        <v>7554000</v>
       </c>
       <c r="E8" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202704</v>
+        <v>202711</v>
       </c>
       <c r="C9" t="n">
-        <v>35962889</v>
+        <v>6960028</v>
       </c>
       <c r="D9" t="n">
-        <v>35963000</v>
+        <v>6960000</v>
       </c>
       <c r="E9" t="n">
-        <v>-111</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202705</v>
+        <v>202712</v>
       </c>
       <c r="C10" t="n">
-        <v>32398021</v>
+        <v>10119050</v>
       </c>
       <c r="D10" t="n">
-        <v>32398000</v>
+        <v>10119000</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202706</v>
+        <v>202801</v>
       </c>
       <c r="C11" t="n">
-        <v>37301937</v>
+        <v>9581970</v>
       </c>
       <c r="D11" t="n">
-        <v>37302000</v>
+        <v>9582000</v>
       </c>
       <c r="E11" t="n">
-        <v>-63</v>
+        <v>-30</v>
       </c>
       <c r="F11" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>202707</v>
+        <v>202802</v>
       </c>
       <c r="C12" t="n">
-        <v>40532740</v>
+        <v>10087036</v>
       </c>
       <c r="D12" t="n">
-        <v>40532000</v>
+        <v>10087000</v>
       </c>
       <c r="E12" t="n">
-        <v>740</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>740</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202708</v>
+        <v>202803</v>
       </c>
       <c r="C13" t="n">
-        <v>38997083</v>
+        <v>11095987</v>
       </c>
       <c r="D13" t="n">
-        <v>38997000</v>
+        <v>11096000</v>
       </c>
       <c r="E13" t="n">
-        <v>83</v>
+        <v>-13</v>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202709</v>
+        <v>202804</v>
       </c>
       <c r="C14" t="n">
-        <v>39671047</v>
+        <v>10591005</v>
       </c>
       <c r="D14" t="n">
-        <v>39671000</v>
+        <v>10591000</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>202710</v>
+        <v>202806</v>
       </c>
       <c r="C15" t="n">
-        <v>31198144</v>
+        <v>11095996</v>
       </c>
       <c r="D15" t="n">
-        <v>31198000</v>
+        <v>11096000</v>
       </c>
       <c r="E15" t="n">
-        <v>144</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="n">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202711</v>
+        <v>202807</v>
       </c>
       <c r="C16" t="n">
-        <v>38996834</v>
+        <v>9079004</v>
       </c>
       <c r="D16" t="n">
-        <v>38997000</v>
+        <v>9079000</v>
       </c>
       <c r="E16" t="n">
-        <v>-166</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202712</v>
+        <v>202808</v>
       </c>
       <c r="C17" t="n">
-        <v>38953182</v>
+        <v>11097991</v>
       </c>
       <c r="D17" t="n">
-        <v>38953000</v>
+        <v>11098000</v>
       </c>
       <c r="E17" t="n">
-        <v>182</v>
+        <v>-9</v>
       </c>
       <c r="F17" t="n">
-        <v>182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>202801</v>
+        <v>202809</v>
       </c>
       <c r="C18" t="n">
-        <v>28649929</v>
+        <v>10591999</v>
       </c>
       <c r="D18" t="n">
-        <v>28650000</v>
+        <v>10592000</v>
       </c>
       <c r="E18" t="n">
-        <v>-71</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>202802</v>
+        <v>202810</v>
       </c>
       <c r="C19" t="n">
-        <v>38111934</v>
+        <v>12031793</v>
       </c>
       <c r="D19" t="n">
-        <v>38112000</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-66</v>
+        <v>12031793</v>
       </c>
       <c r="F19" t="n">
-        <v>66</v>
+        <v>12031793</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202803</v>
+        <v>202811</v>
       </c>
       <c r="C20" t="n">
-        <v>42707242</v>
+        <v>14461787</v>
       </c>
       <c r="D20" t="n">
-        <v>42707000</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>242</v>
+        <v>14461787</v>
       </c>
       <c r="F20" t="n">
-        <v>242</v>
+        <v>14461787</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>202804</v>
+        <v>202812</v>
       </c>
       <c r="C21" t="n">
-        <v>34867974</v>
+        <v>14487148</v>
       </c>
       <c r="D21" t="n">
-        <v>34868000</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-26</v>
+        <v>14487148</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>14487148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202805</v>
+        <v>202701</v>
       </c>
       <c r="C22" t="n">
-        <v>35257737</v>
+        <v>21784003</v>
       </c>
       <c r="D22" t="n">
-        <v>35258000</v>
+        <v>21784000</v>
       </c>
       <c r="E22" t="n">
-        <v>-263</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202806</v>
+        <v>202702</v>
       </c>
       <c r="C23" t="n">
-        <v>41084899</v>
+        <v>21484099</v>
       </c>
       <c r="D23" t="n">
-        <v>41085000</v>
+        <v>21484000</v>
       </c>
       <c r="E23" t="n">
-        <v>-101</v>
+        <v>99</v>
       </c>
       <c r="F23" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>202807</v>
+        <v>202703</v>
       </c>
       <c r="C24" t="n">
-        <v>40995158</v>
+        <v>19346068</v>
       </c>
       <c r="D24" t="n">
-        <v>40995000</v>
+        <v>19346000</v>
       </c>
       <c r="E24" t="n">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="F24" t="n">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202808</v>
+        <v>202704</v>
       </c>
       <c r="C25" t="n">
-        <v>32894931</v>
+        <v>17584330</v>
       </c>
       <c r="D25" t="n">
-        <v>32895000</v>
+        <v>17584000</v>
       </c>
       <c r="E25" t="n">
-        <v>-69</v>
+        <v>330</v>
       </c>
       <c r="F25" t="n">
-        <v>69</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202809</v>
+        <v>202705</v>
       </c>
       <c r="C26" t="n">
-        <v>31730780</v>
+        <v>9339116</v>
       </c>
       <c r="D26" t="n">
-        <v>31731000</v>
+        <v>9339000</v>
       </c>
       <c r="E26" t="n">
-        <v>-220</v>
+        <v>116</v>
       </c>
       <c r="F26" t="n">
-        <v>220</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAUHAUS</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202810</v>
+        <v>202706</v>
       </c>
       <c r="C27" t="n">
-        <v>31628001</v>
+        <v>20717130</v>
       </c>
       <c r="D27" t="n">
-        <v>31628000</v>
+        <v>20717000</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>202610</v>
+        <v>202707</v>
       </c>
       <c r="C28" t="n">
-        <v>3839996</v>
+        <v>15206317</v>
       </c>
       <c r="D28" t="n">
-        <v>3840000</v>
+        <v>15206000</v>
       </c>
       <c r="E28" t="n">
-        <v>-4</v>
+        <v>317</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202611</v>
+        <v>202708</v>
       </c>
       <c r="C29" t="n">
-        <v>4577992</v>
+        <v>15212663</v>
       </c>
       <c r="D29" t="n">
-        <v>4578000</v>
+        <v>15213000</v>
       </c>
       <c r="E29" t="n">
-        <v>-8</v>
+        <v>-337</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>202612</v>
+        <v>202709</v>
       </c>
       <c r="C30" t="n">
-        <v>5010001</v>
+        <v>14405899</v>
       </c>
       <c r="D30" t="n">
-        <v>5010000</v>
+        <v>14406000</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>-101</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202701</v>
+        <v>202710</v>
       </c>
       <c r="C31" t="n">
-        <v>4595998</v>
+        <v>8438829</v>
       </c>
       <c r="D31" t="n">
-        <v>4596000</v>
+        <v>8439000</v>
       </c>
       <c r="E31" t="n">
-        <v>-2</v>
+        <v>-171</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202702</v>
+        <v>202711</v>
       </c>
       <c r="C32" t="n">
-        <v>3254957</v>
+        <v>7644920</v>
       </c>
       <c r="D32" t="n">
-        <v>3255000</v>
+        <v>7645000</v>
       </c>
       <c r="E32" t="n">
-        <v>-43</v>
+        <v>-80</v>
       </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>202703</v>
+        <v>202712</v>
       </c>
       <c r="C33" t="n">
-        <v>5169966</v>
+        <v>16573143</v>
       </c>
       <c r="D33" t="n">
-        <v>5170000</v>
+        <v>16573000</v>
       </c>
       <c r="E33" t="n">
-        <v>-34</v>
+        <v>143</v>
       </c>
       <c r="F33" t="n">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202704</v>
+        <v>202801</v>
       </c>
       <c r="C34" t="n">
-        <v>4595885</v>
+        <v>15232990</v>
       </c>
       <c r="D34" t="n">
-        <v>4596000</v>
+        <v>15233000</v>
       </c>
       <c r="E34" t="n">
-        <v>-115</v>
+        <v>-10</v>
       </c>
       <c r="F34" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202705</v>
+        <v>202802</v>
       </c>
       <c r="C35" t="n">
-        <v>4213014</v>
+        <v>17232794</v>
       </c>
       <c r="D35" t="n">
-        <v>4213000</v>
+        <v>17233000</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>-206</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>202707</v>
+        <v>202803</v>
       </c>
       <c r="C36" t="n">
-        <v>5169988</v>
+        <v>16423917</v>
       </c>
       <c r="D36" t="n">
-        <v>5170000</v>
+        <v>16424000</v>
       </c>
       <c r="E36" t="n">
-        <v>-12</v>
+        <v>-83</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202708</v>
+        <v>202804</v>
       </c>
       <c r="C37" t="n">
-        <v>4978982</v>
+        <v>12398873</v>
       </c>
       <c r="D37" t="n">
-        <v>4979000</v>
+        <v>12399000</v>
       </c>
       <c r="E37" t="n">
-        <v>-18</v>
+        <v>-127</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202709</v>
+        <v>202805</v>
       </c>
       <c r="C38" t="n">
-        <v>5087002</v>
+        <v>18070937</v>
       </c>
       <c r="D38" t="n">
-        <v>5087000</v>
+        <v>18071000</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>-63</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>202710</v>
+        <v>202806</v>
       </c>
       <c r="C39" t="n">
-        <v>3361001</v>
+        <v>16115031</v>
       </c>
       <c r="D39" t="n">
-        <v>3361000</v>
+        <v>16115000</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202711</v>
+        <v>202807</v>
       </c>
       <c r="C40" t="n">
-        <v>5834994</v>
+        <v>17234039</v>
       </c>
       <c r="D40" t="n">
-        <v>5835000</v>
+        <v>17234000</v>
       </c>
       <c r="E40" t="n">
-        <v>-6</v>
+        <v>39</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202712</v>
+        <v>202808</v>
       </c>
       <c r="C41" t="n">
-        <v>7951997</v>
+        <v>14426940</v>
       </c>
       <c r="D41" t="n">
-        <v>7952000</v>
+        <v>14427000</v>
       </c>
       <c r="E41" t="n">
-        <v>-3</v>
+        <v>-60</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>202801</v>
+        <v>202809</v>
       </c>
       <c r="C42" t="n">
-        <v>7993999</v>
+        <v>12619021</v>
       </c>
       <c r="D42" t="n">
-        <v>7994000</v>
+        <v>12619000</v>
       </c>
       <c r="E42" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202802</v>
+        <v>202810</v>
       </c>
       <c r="C43" t="n">
-        <v>10491057</v>
+        <v>47785637</v>
       </c>
       <c r="D43" t="n">
-        <v>10491000</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>57</v>
+        <v>47785637</v>
       </c>
       <c r="F43" t="n">
-        <v>57</v>
+        <v>47785637</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202803</v>
+        <v>202811</v>
       </c>
       <c r="C44" t="n">
-        <v>11490942</v>
+        <v>32934839</v>
       </c>
       <c r="D44" t="n">
-        <v>11491000</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-58</v>
+        <v>32934839</v>
       </c>
       <c r="F44" t="n">
-        <v>58</v>
+        <v>32934839</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>202804</v>
+        <v>202812</v>
       </c>
       <c r="C45" t="n">
-        <v>9492974</v>
+        <v>38367592</v>
       </c>
       <c r="D45" t="n">
-        <v>9493000</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-26</v>
+        <v>38367592</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>38367592</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202805</v>
+        <v>202702</v>
       </c>
       <c r="C46" t="n">
-        <v>9991997</v>
+        <v>3950999</v>
       </c>
       <c r="D46" t="n">
-        <v>9992000</v>
+        <v>3951000</v>
       </c>
       <c r="E46" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>202807</v>
+        <v>202703</v>
       </c>
       <c r="C47" t="n">
-        <v>10491014</v>
+        <v>4960025</v>
       </c>
       <c r="D47" t="n">
-        <v>10491000</v>
+        <v>4960000</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>202808</v>
+        <v>202704</v>
       </c>
       <c r="C48" t="n">
-        <v>11490993</v>
+        <v>4717047</v>
       </c>
       <c r="D48" t="n">
-        <v>11491000</v>
+        <v>4717000</v>
       </c>
       <c r="E48" t="n">
-        <v>-7</v>
+        <v>47</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GLOBUS BAUMARKT</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>202809</v>
+        <v>202705</v>
       </c>
       <c r="C49" t="n">
-        <v>10991014</v>
+        <v>4960076</v>
       </c>
       <c r="D49" t="n">
-        <v>10991000</v>
+        <v>4960000</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>202609</v>
+        <v>202706</v>
       </c>
       <c r="C50" t="n">
-        <v>4411911</v>
+        <v>5526222</v>
       </c>
       <c r="D50" t="n">
-        <v>4412000</v>
+        <v>5526000</v>
       </c>
       <c r="E50" t="n">
-        <v>-89</v>
+        <v>222</v>
       </c>
       <c r="F50" t="n">
-        <v>89</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>202610</v>
+        <v>202707</v>
       </c>
       <c r="C51" t="n">
-        <v>7225963</v>
+        <v>4285940</v>
       </c>
       <c r="D51" t="n">
-        <v>7226000</v>
+        <v>4286000</v>
       </c>
       <c r="E51" t="n">
-        <v>-37</v>
+        <v>-60</v>
       </c>
       <c r="F51" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>202611</v>
+        <v>202708</v>
       </c>
       <c r="C52" t="n">
-        <v>8097832</v>
+        <v>5223958</v>
       </c>
       <c r="D52" t="n">
-        <v>8098000</v>
+        <v>5224000</v>
       </c>
       <c r="E52" t="n">
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="F52" t="n">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>202701</v>
+        <v>202709</v>
       </c>
       <c r="C53" t="n">
-        <v>4524020</v>
+        <v>5799019</v>
       </c>
       <c r="D53" t="n">
-        <v>4524000</v>
+        <v>5799000</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>202702</v>
+        <v>202710</v>
       </c>
       <c r="C54" t="n">
-        <v>7646876</v>
+        <v>2462868</v>
       </c>
       <c r="D54" t="n">
-        <v>7647000</v>
+        <v>2463000</v>
       </c>
       <c r="E54" t="n">
-        <v>-124</v>
+        <v>-132</v>
       </c>
       <c r="F54" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>202703</v>
+        <v>202711</v>
       </c>
       <c r="C55" t="n">
-        <v>5428911</v>
+        <v>2623964</v>
       </c>
       <c r="D55" t="n">
-        <v>5429000</v>
+        <v>2624000</v>
       </c>
       <c r="E55" t="n">
-        <v>-89</v>
+        <v>-36</v>
       </c>
       <c r="F55" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>202704</v>
+        <v>202712</v>
       </c>
       <c r="C56" t="n">
-        <v>4560038</v>
+        <v>4588003</v>
       </c>
       <c r="D56" t="n">
-        <v>4560000</v>
+        <v>4588000</v>
       </c>
       <c r="E56" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>202705</v>
+        <v>202801</v>
       </c>
       <c r="C57" t="n">
-        <v>5769751</v>
+        <v>3152108</v>
       </c>
       <c r="D57" t="n">
-        <v>5770000</v>
+        <v>3152000</v>
       </c>
       <c r="E57" t="n">
-        <v>-249</v>
+        <v>108</v>
       </c>
       <c r="F57" t="n">
-        <v>249</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>202706</v>
+        <v>202802</v>
       </c>
       <c r="C58" t="n">
-        <v>6369989</v>
+        <v>4154019</v>
       </c>
       <c r="D58" t="n">
-        <v>6370000</v>
+        <v>4154000</v>
       </c>
       <c r="E58" t="n">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>202707</v>
+        <v>202803</v>
       </c>
       <c r="C59" t="n">
-        <v>5769792</v>
+        <v>3893989</v>
       </c>
       <c r="D59" t="n">
-        <v>5770000</v>
+        <v>3894000</v>
       </c>
       <c r="E59" t="n">
-        <v>-208</v>
+        <v>-11</v>
       </c>
       <c r="F59" t="n">
-        <v>208</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>202708</v>
+        <v>202804</v>
       </c>
       <c r="C60" t="n">
-        <v>5819904</v>
+        <v>4192068</v>
       </c>
       <c r="D60" t="n">
-        <v>5820000</v>
+        <v>4192000</v>
       </c>
       <c r="E60" t="n">
-        <v>-96</v>
+        <v>68</v>
       </c>
       <c r="F60" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>202709</v>
+        <v>202805</v>
       </c>
       <c r="C61" t="n">
-        <v>4209999</v>
+        <v>4631943</v>
       </c>
       <c r="D61" t="n">
-        <v>4210000</v>
+        <v>4632000</v>
       </c>
       <c r="E61" t="n">
-        <v>-1</v>
+        <v>-57</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>202710</v>
+        <v>202806</v>
       </c>
       <c r="C62" t="n">
-        <v>6837847</v>
+        <v>3175878</v>
       </c>
       <c r="D62" t="n">
-        <v>6838000</v>
+        <v>3176000</v>
       </c>
       <c r="E62" t="n">
-        <v>-153</v>
+        <v>-122</v>
       </c>
       <c r="F62" t="n">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>202711</v>
+        <v>202807</v>
       </c>
       <c r="C63" t="n">
-        <v>5431986</v>
+        <v>4456199</v>
       </c>
       <c r="D63" t="n">
-        <v>5432000</v>
+        <v>4456000</v>
       </c>
       <c r="E63" t="n">
-        <v>-14</v>
+        <v>199</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>202801</v>
+        <v>202808</v>
       </c>
       <c r="C64" t="n">
-        <v>2624048</v>
+        <v>4713948</v>
       </c>
       <c r="D64" t="n">
-        <v>2624000</v>
+        <v>4714000</v>
       </c>
       <c r="E64" t="n">
-        <v>48</v>
+        <v>-52</v>
       </c>
       <c r="F64" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>202802</v>
+        <v>202809</v>
       </c>
       <c r="C65" t="n">
-        <v>4588110</v>
+        <v>1519990</v>
       </c>
       <c r="D65" t="n">
-        <v>4588000</v>
+        <v>1520000</v>
       </c>
       <c r="E65" t="n">
-        <v>110</v>
+        <v>-10</v>
       </c>
       <c r="F65" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>202803</v>
+        <v>202810</v>
       </c>
       <c r="C66" t="n">
-        <v>4387938</v>
+        <v>12208129</v>
       </c>
       <c r="D66" t="n">
-        <v>4388000</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-62</v>
+        <v>12208129</v>
       </c>
       <c r="F66" t="n">
-        <v>62</v>
+        <v>12208129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>202804</v>
+        <v>202811</v>
       </c>
       <c r="C67" t="n">
-        <v>3151949</v>
+        <v>12170923</v>
       </c>
       <c r="D67" t="n">
-        <v>3152000</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-51</v>
+        <v>12170923</v>
       </c>
       <c r="F67" t="n">
-        <v>51</v>
+        <v>12170923</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>202805</v>
+        <v>202812</v>
       </c>
       <c r="C68" t="n">
-        <v>4153839</v>
+        <v>3967600</v>
       </c>
       <c r="D68" t="n">
-        <v>4154000</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-161</v>
+        <v>3967600</v>
       </c>
       <c r="F68" t="n">
-        <v>161</v>
+        <v>3967600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>202806</v>
+        <v>202703</v>
       </c>
       <c r="C69" t="n">
-        <v>3893905</v>
+        <v>31044967</v>
       </c>
       <c r="D69" t="n">
-        <v>3894000</v>
+        <v>31045000</v>
       </c>
       <c r="E69" t="n">
-        <v>-95</v>
+        <v>-33</v>
       </c>
       <c r="F69" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>202807</v>
+        <v>202704</v>
       </c>
       <c r="C70" t="n">
-        <v>4192107</v>
+        <v>34311926</v>
       </c>
       <c r="D70" t="n">
-        <v>4192000</v>
+        <v>34312000</v>
       </c>
       <c r="E70" t="n">
-        <v>107</v>
+        <v>-74</v>
       </c>
       <c r="F70" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>202808</v>
+        <v>202705</v>
       </c>
       <c r="C71" t="n">
-        <v>4632082</v>
+        <v>35947048</v>
       </c>
       <c r="D71" t="n">
-        <v>4632000</v>
+        <v>35947000</v>
       </c>
       <c r="E71" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F71" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HORNBACH</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>202809</v>
+        <v>202706</v>
       </c>
       <c r="C72" t="n">
-        <v>3175974</v>
+        <v>35947057</v>
       </c>
       <c r="D72" t="n">
-        <v>3176000</v>
+        <v>35947000</v>
       </c>
       <c r="E72" t="n">
-        <v>-26</v>
+        <v>57</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>202608</v>
+        <v>202707</v>
       </c>
       <c r="C73" t="n">
-        <v>16908001</v>
+        <v>35947180</v>
       </c>
       <c r="D73" t="n">
-        <v>16908000</v>
+        <v>35947000</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>202609</v>
+        <v>202708</v>
       </c>
       <c r="C74" t="n">
-        <v>17066790</v>
+        <v>27776705</v>
       </c>
       <c r="D74" t="n">
-        <v>17067000</v>
+        <v>27777000</v>
       </c>
       <c r="E74" t="n">
-        <v>-210</v>
+        <v>-295</v>
       </c>
       <c r="F74" t="n">
-        <v>210</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>202610</v>
+        <v>202709</v>
       </c>
       <c r="C75" t="n">
-        <v>19283879</v>
+        <v>35947091</v>
       </c>
       <c r="D75" t="n">
-        <v>19284000</v>
+        <v>35947000</v>
       </c>
       <c r="E75" t="n">
-        <v>-121</v>
+        <v>91</v>
       </c>
       <c r="F75" t="n">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>202611</v>
+        <v>202710</v>
       </c>
       <c r="C76" t="n">
-        <v>17543906</v>
+        <v>37612952</v>
       </c>
       <c r="D76" t="n">
-        <v>17544000</v>
+        <v>37613000</v>
       </c>
       <c r="E76" t="n">
-        <v>-94</v>
+        <v>-48</v>
       </c>
       <c r="F76" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>202612</v>
+        <v>202711</v>
       </c>
       <c r="C77" t="n">
-        <v>15911060</v>
+        <v>25155043</v>
       </c>
       <c r="D77" t="n">
-        <v>15911000</v>
+        <v>25155000</v>
       </c>
       <c r="E77" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F77" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>202701</v>
+        <v>202712</v>
       </c>
       <c r="C78" t="n">
-        <v>15656008</v>
+        <v>33085164</v>
       </c>
       <c r="D78" t="n">
-        <v>15656000</v>
+        <v>33085000</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>202702</v>
+        <v>202801</v>
       </c>
       <c r="C79" t="n">
-        <v>16479724</v>
+        <v>30052031</v>
       </c>
       <c r="D79" t="n">
-        <v>16480000</v>
+        <v>30052000</v>
       </c>
       <c r="E79" t="n">
-        <v>-276</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>276</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>202703</v>
+        <v>202802</v>
       </c>
       <c r="C80" t="n">
-        <v>17965062</v>
+        <v>31538944</v>
       </c>
       <c r="D80" t="n">
-        <v>17965000</v>
+        <v>31539000</v>
       </c>
       <c r="E80" t="n">
-        <v>62</v>
+        <v>-56</v>
       </c>
       <c r="F80" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>202704</v>
+        <v>202803</v>
       </c>
       <c r="C81" t="n">
-        <v>18128102</v>
+        <v>34952115</v>
       </c>
       <c r="D81" t="n">
-        <v>18128000</v>
+        <v>34952000</v>
       </c>
       <c r="E81" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F81" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>202705</v>
+        <v>202804</v>
       </c>
       <c r="C82" t="n">
-        <v>16642765</v>
+        <v>33829058</v>
       </c>
       <c r="D82" t="n">
-        <v>16643000</v>
+        <v>33829000</v>
       </c>
       <c r="E82" t="n">
-        <v>-235</v>
+        <v>58</v>
       </c>
       <c r="F82" t="n">
-        <v>235</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>202706</v>
+        <v>202805</v>
       </c>
       <c r="C83" t="n">
-        <v>17141028</v>
+        <v>31190071</v>
       </c>
       <c r="D83" t="n">
-        <v>17141000</v>
+        <v>31190000</v>
       </c>
       <c r="E83" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F83" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>202707</v>
+        <v>202806</v>
       </c>
       <c r="C84" t="n">
-        <v>14170975</v>
+        <v>30135017</v>
       </c>
       <c r="D84" t="n">
-        <v>14171000</v>
+        <v>30135000</v>
       </c>
       <c r="E84" t="n">
-        <v>-25</v>
+        <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>202708</v>
+        <v>202807</v>
       </c>
       <c r="C85" t="n">
-        <v>17945391</v>
+        <v>29846155</v>
       </c>
       <c r="D85" t="n">
-        <v>17945000</v>
+        <v>29846000</v>
       </c>
       <c r="E85" t="n">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="F85" t="n">
-        <v>391</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>202709</v>
+        <v>202808</v>
       </c>
       <c r="C86" t="n">
-        <v>17094014</v>
+        <v>38674089</v>
       </c>
       <c r="D86" t="n">
-        <v>17094000</v>
+        <v>38674000</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F86" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>202710</v>
+        <v>202809</v>
       </c>
       <c r="C87" t="n">
-        <v>17257001</v>
+        <v>37058834</v>
       </c>
       <c r="D87" t="n">
-        <v>17257000</v>
+        <v>37059000</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>-166</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>202711</v>
+        <v>202810</v>
       </c>
       <c r="C88" t="n">
-        <v>16061093</v>
+        <v>82365283</v>
       </c>
       <c r="D88" t="n">
-        <v>16061000</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>93</v>
+        <v>82365283</v>
       </c>
       <c r="F88" t="n">
-        <v>93</v>
+        <v>82365283</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>202712</v>
+        <v>202811</v>
       </c>
       <c r="C89" t="n">
-        <v>13417000</v>
+        <v>109443014</v>
       </c>
       <c r="D89" t="n">
-        <v>13417000</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>109443014</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>109443014</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>202801</v>
+        <v>202812</v>
       </c>
       <c r="C90" t="n">
-        <v>16497289</v>
+        <v>95129488</v>
       </c>
       <c r="D90" t="n">
-        <v>16497000</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>289</v>
+        <v>95129488</v>
       </c>
       <c r="F90" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>202802</v>
-      </c>
-      <c r="C91" t="n">
-        <v>18737788</v>
-      </c>
-      <c r="D91" t="n">
-        <v>18738000</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-212</v>
-      </c>
-      <c r="F91" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>202803</v>
-      </c>
-      <c r="C92" t="n">
-        <v>21439038</v>
-      </c>
-      <c r="D92" t="n">
-        <v>21439000</v>
-      </c>
-      <c r="E92" t="n">
-        <v>38</v>
-      </c>
-      <c r="F92" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>202804</v>
-      </c>
-      <c r="C93" t="n">
-        <v>18631011</v>
-      </c>
-      <c r="D93" t="n">
-        <v>18631000</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11</v>
-      </c>
-      <c r="F93" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>202805</v>
-      </c>
-      <c r="C94" t="n">
-        <v>21410894</v>
-      </c>
-      <c r="D94" t="n">
-        <v>21411000</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-106</v>
-      </c>
-      <c r="F94" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>202806</v>
-      </c>
-      <c r="C95" t="n">
-        <v>20622243</v>
-      </c>
-      <c r="D95" t="n">
-        <v>20622000</v>
-      </c>
-      <c r="E95" t="n">
-        <v>243</v>
-      </c>
-      <c r="F95" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>202807</v>
-      </c>
-      <c r="C96" t="n">
-        <v>15397014</v>
-      </c>
-      <c r="D96" t="n">
-        <v>15397000</v>
-      </c>
-      <c r="E96" t="n">
-        <v>14</v>
-      </c>
-      <c r="F96" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>202808</v>
-      </c>
-      <c r="C97" t="n">
-        <v>22735815</v>
-      </c>
-      <c r="D97" t="n">
-        <v>22736000</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-185</v>
-      </c>
-      <c r="F97" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>OBI</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>202809</v>
-      </c>
-      <c r="C98" t="n">
-        <v>19833007</v>
-      </c>
-      <c r="D98" t="n">
-        <v>19833000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7</v>
+        <v>95129488</v>
       </c>
     </row>
   </sheetData>
